--- a/artfynd/A 30876-2025 artfynd.xlsx
+++ b/artfynd/A 30876-2025 artfynd.xlsx
@@ -988,7 +988,7 @@
         <v>126529367</v>
       </c>
       <c r="B5" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
